--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD02F7D-95C5-4015-9D46-7C29EF0D5624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C99F8-4429-4171-9774-63BCBAC822CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="4890" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="3285" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="417">
   <si>
     <t>Type</t>
   </si>
@@ -1644,6 +1644,9 @@
   </si>
   <si>
     <t>列番駒野TST</t>
+  </si>
+  <si>
+    <t>列番駒野下り出発</t>
   </si>
   <si>
     <t>列番駒野5番線</t>
@@ -2000,7 +2003,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF350"/>
+  <dimension ref="A1:AF351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -19165,10 +19168,10 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4">
-        <v>1252</v>
+        <v>1096</v>
       </c>
       <c r="I338" s="4">
-        <v>417</v>
+        <v>644</v>
       </c>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
@@ -19214,7 +19217,7 @@
         <v>1252</v>
       </c>
       <c r="I339" s="4">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
@@ -19257,10 +19260,10 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4">
-        <v>1771</v>
+        <v>1252</v>
       </c>
       <c r="I340" s="4">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
@@ -19306,7 +19309,7 @@
         <v>1771</v>
       </c>
       <c r="I341" s="4">
-        <v>537</v>
+        <v>357</v>
       </c>
       <c r="J341" s="4"/>
       <c r="K341" s="4"/>
@@ -19352,7 +19355,7 @@
         <v>1771</v>
       </c>
       <c r="I342" s="4">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
@@ -19395,10 +19398,10 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4">
-        <v>2255</v>
+        <v>1771</v>
       </c>
       <c r="I343" s="4">
-        <v>684</v>
+        <v>597</v>
       </c>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
@@ -19441,7 +19444,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4">
-        <v>2405</v>
+        <v>2255</v>
       </c>
       <c r="I344" s="4">
         <v>684</v>
@@ -19475,15 +19478,23 @@
       <c r="AF344" s="6"/>
     </row>
     <row r="345" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A345" s="4"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
-      <c r="H345" s="4"/>
-      <c r="I345" s="4"/>
+      <c r="H345" s="4">
+        <v>2405</v>
+      </c>
+      <c r="I345" s="4">
+        <v>684</v>
+      </c>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
@@ -19493,12 +19504,16 @@
       <c r="P345" s="4"/>
       <c r="Q345" s="4"/>
       <c r="R345" s="4"/>
-      <c r="S345" s="4"/>
+      <c r="S345" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
       <c r="V345" s="5"/>
-      <c r="W345" s="6"/>
-      <c r="X345" s="6"/>
+      <c r="W345" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="X345" s="13"/>
       <c r="Y345" s="6"/>
       <c r="Z345" s="6"/>
       <c r="AA345" s="6"/>
@@ -19678,10 +19693,44 @@
       <c r="AE350" s="6"/>
       <c r="AF350" s="6"/>
     </row>
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A351" s="4"/>
+      <c r="B351" s="7"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+      <c r="I351" s="4"/>
+      <c r="J351" s="4"/>
+      <c r="K351" s="4"/>
+      <c r="L351" s="4"/>
+      <c r="M351" s="4"/>
+      <c r="N351" s="4"/>
+      <c r="O351" s="4"/>
+      <c r="P351" s="4"/>
+      <c r="Q351" s="4"/>
+      <c r="R351" s="4"/>
+      <c r="S351" s="4"/>
+      <c r="T351" s="4"/>
+      <c r="U351" s="4"/>
+      <c r="V351" s="5"/>
+      <c r="W351" s="6"/>
+      <c r="X351" s="6"/>
+      <c r="Y351" s="6"/>
+      <c r="Z351" s="6"/>
+      <c r="AA351" s="6"/>
+      <c r="AB351" s="6"/>
+      <c r="AC351" s="6"/>
+      <c r="AD351" s="6"/>
+      <c r="AE351" s="6"/>
+      <c r="AF351" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A350" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A351" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Button,Label,TextBlock,Image,BackImage,ClockImage,LeverImage,KeyImage,ButtonImage,Retsuban"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19703,12 +19752,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0665C079-F0AF-489D-8DE6-C51081222C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C583F-834F-4AD0-8B7C-FDCA65D96538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="4365" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="4605" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -1208,19 +1208,19 @@
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
   </si>
   <si>
-    <t>TH76_24イT_P24イN_1</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イN_2</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イN_3</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イR_1</t>
-  </si>
-  <si>
-    <t>TH76_24イT_P24イR_2</t>
+    <t>TH76_24T_P24イN_1</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イN_2</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イN_3</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イR_1</t>
+  </si>
+  <si>
+    <t>TH76_24T_P24イR_2</t>
   </si>
   <si>
     <t>TH76_25T_P25N_1</t>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C583F-834F-4AD0-8B7C-FDCA65D96538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47873E1D-4792-4653-80CF-30B699528426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="4605" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="4395" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="421">
   <si>
     <t>Type</t>
   </si>
@@ -10366,7 +10366,9 @@
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="G146" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE61E79-00B3-4A05-A2C7-E0F11CEDB3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47511157-F1E2-408F-8ECF-2399E66728A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="5025" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="4005" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>1R</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>物理てこ</t>
   </si>
   <si>
     <t>0,1</t>
@@ -591,7 +591,7 @@
     <t>1RD_G</t>
   </si>
   <si>
-    <t>信号機</t>
+    <t>信号機表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -948,7 +948,7 @@
     <t>P41_PG</t>
   </si>
   <si>
-    <t>転てつ器</t>
+    <t>転てつ器表示灯</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
@@ -1092,7 +1092,7 @@
     <t>駅扱切換_PY</t>
   </si>
   <si>
-    <t>駅扱切換てこ</t>
+    <t>駅扱切換表示灯</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1101,7 +1101,7 @@
     <t>TH76_5LAT_1</t>
   </si>
   <si>
-    <t>軌道回路</t>
+    <t>軌道回路表示灯</t>
   </si>
   <si>
     <t>0,1,2</t>
@@ -1662,7 +1662,7 @@
     <t>停電_R</t>
   </si>
   <si>
-    <t>ランプ</t>
+    <t>状態表示灯</t>
   </si>
   <si>
     <t>CTC故障_R</t>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A385CC6E-F106-4C6A-8085-DBEAC3F703F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A760FCD-E784-4B3A-8D55-5C2FCC98ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="5010" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="5130" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="582">
   <si>
     <t>Type</t>
   </si>
@@ -1395,7 +1395,7 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
-    <t>TH75_CTC</t>
+    <t>TH75_81</t>
   </si>
   <si>
     <t>-1,1,-11,11</t>
@@ -2113,9 +2113,6 @@
   </si>
   <si>
     <t>TH75_9LT_2</t>
-  </si>
-  <si>
-    <t>TH75_49T</t>
   </si>
   <si>
     <t>27T_1</t>
@@ -21743,7 +21740,7 @@
         <v>314</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
@@ -21792,14 +21789,14 @@
         <v>31</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
@@ -21848,14 +21845,14 @@
         <v>31</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
@@ -21904,14 +21901,14 @@
         <v>31</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
@@ -21960,14 +21957,14 @@
         <v>31</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
@@ -22016,14 +22013,14 @@
         <v>31</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
@@ -22072,11 +22069,11 @@
         <v>31</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -22126,11 +22123,11 @@
         <v>31</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -22180,11 +22177,11 @@
         <v>31</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
@@ -22234,11 +22231,11 @@
         <v>31</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
@@ -22285,14 +22282,14 @@
     </row>
     <row r="331" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B331" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
@@ -22321,7 +22318,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="6"/>
       <c r="AA331" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB331" s="14"/>
       <c r="AC331" s="7"/>
@@ -22335,14 +22332,14 @@
     </row>
     <row r="332" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
@@ -22371,7 +22368,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="6"/>
       <c r="AA332" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB332" s="14"/>
       <c r="AC332" s="7"/>
@@ -22385,14 +22382,14 @@
     </row>
     <row r="333" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
@@ -22421,7 +22418,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="6"/>
       <c r="AA333" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB333" s="14"/>
       <c r="AC333" s="7"/>
@@ -22435,14 +22432,14 @@
     </row>
     <row r="334" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -22471,7 +22468,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="6"/>
       <c r="AA334" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB334" s="14"/>
       <c r="AC334" s="7"/>
@@ -22485,14 +22482,14 @@
     </row>
     <row r="335" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -22521,7 +22518,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="6"/>
       <c r="AA335" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB335" s="14"/>
       <c r="AC335" s="7"/>
@@ -22535,14 +22532,14 @@
     </row>
     <row r="336" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
@@ -22571,7 +22568,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="6"/>
       <c r="AA336" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB336" s="14"/>
       <c r="AC336" s="7"/>
@@ -22585,14 +22582,14 @@
     </row>
     <row r="337" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -22621,7 +22618,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="6"/>
       <c r="AA337" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB337" s="14"/>
       <c r="AC337" s="7"/>
@@ -22635,14 +22632,14 @@
     </row>
     <row r="338" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
@@ -22671,7 +22668,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="6"/>
       <c r="AA338" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB338" s="14"/>
       <c r="AC338" s="7"/>
@@ -22685,14 +22682,14 @@
     </row>
     <row r="339" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -22721,7 +22718,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="6"/>
       <c r="AA339" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB339" s="14"/>
       <c r="AC339" s="7"/>
@@ -22735,14 +22732,14 @@
     </row>
     <row r="340" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
@@ -22771,7 +22768,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="6"/>
       <c r="AA340" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB340" s="14"/>
       <c r="AC340" s="7"/>
@@ -22785,14 +22782,14 @@
     </row>
     <row r="341" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
@@ -22821,7 +22818,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="6"/>
       <c r="AA341" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB341" s="14"/>
       <c r="AC341" s="7"/>
@@ -22835,14 +22832,14 @@
     </row>
     <row r="342" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
@@ -22871,7 +22868,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="6"/>
       <c r="AA342" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB342" s="14"/>
       <c r="AC342" s="7"/>
@@ -22885,14 +22882,14 @@
     </row>
     <row r="343" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
@@ -22921,7 +22918,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="6"/>
       <c r="AA343" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB343" s="14"/>
       <c r="AC343" s="7"/>
@@ -22935,14 +22932,14 @@
     </row>
     <row r="344" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
@@ -22971,7 +22968,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="6"/>
       <c r="AA344" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB344" s="14"/>
       <c r="AC344" s="7"/>
@@ -22985,14 +22982,14 @@
     </row>
     <row r="345" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
@@ -23021,7 +23018,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="6"/>
       <c r="AA345" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB345" s="14"/>
       <c r="AC345" s="7"/>
@@ -23035,14 +23032,14 @@
     </row>
     <row r="346" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
@@ -23071,7 +23068,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="6"/>
       <c r="AA346" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AB346" s="14"/>
       <c r="AC346" s="7"/>
@@ -23278,18 +23275,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>236</v>
@@ -23353,7 +23350,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A760FCD-E784-4B3A-8D55-5C2FCC98ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD5C1E-F484-441A-9338-F63053A927B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="5130" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="4890" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="598">
   <si>
     <t>Type</t>
   </si>
@@ -2169,52 +2169,100 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH76_TTC_Track1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番館浜2番線</t>
   </si>
   <si>
+    <t>TH76_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番館浜3番線</t>
   </si>
   <si>
+    <t>TH76_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番館浜4番線</t>
   </si>
   <si>
+    <t>TH76_TTC_Track4</t>
+  </si>
+  <si>
     <t>列番駒野上り第2接近</t>
   </si>
   <si>
+    <t>TH75_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番駒野上り第1接近</t>
   </si>
   <si>
+    <t>TH75_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番駒野上り場内</t>
   </si>
   <si>
+    <t>TH75_TTC_UpArr1</t>
+  </si>
+  <si>
     <t>列番駒野TST</t>
   </si>
   <si>
+    <t>TH75_TTC_TrackT</t>
+  </si>
+  <si>
     <t>列番駒野下り出発</t>
   </si>
   <si>
+    <t>TH75_TTC_DownDep1</t>
+  </si>
+  <si>
     <t>列番駒野5番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track5</t>
+  </si>
+  <si>
     <t>列番駒野6番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track6</t>
+  </si>
+  <si>
     <t>列番駒野1番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番駒野2番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番駒野3番線</t>
   </si>
   <si>
+    <t>TH75_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番駒野下り第1接近</t>
   </si>
   <si>
+    <t>TH75_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番駒野下り第2接近</t>
+  </si>
+  <si>
+    <t>TH75_TTC_Down2</t>
   </si>
   <si>
     <t>Button</t>
@@ -2293,7 +2341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2337,6 +2385,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19422,7 +19473,7 @@
         <v>1503</v>
       </c>
       <c r="M282" s="5">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="N282" s="5"/>
       <c r="O282" s="5"/>
@@ -19483,10 +19534,10 @@
       <c r="J283" s="5"/>
       <c r="K283" s="5"/>
       <c r="L283" s="5">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="M283" s="5">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N283" s="5"/>
       <c r="O283" s="5"/>
@@ -19616,7 +19667,7 @@
         <v>1503</v>
       </c>
       <c r="M285" s="5">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="N285" s="5"/>
       <c r="O285" s="5"/>
@@ -19677,10 +19728,10 @@
       <c r="J286" s="5"/>
       <c r="K286" s="5"/>
       <c r="L286" s="5">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="M286" s="5">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N286" s="5"/>
       <c r="O286" s="5"/>
@@ -22291,7 +22342,9 @@
       <c r="D331" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E331" s="5"/>
+      <c r="E331" s="12" t="s">
+        <v>563</v>
+      </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
@@ -22318,7 +22371,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="6"/>
       <c r="AA331" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB331" s="14"/>
       <c r="AC331" s="7"/>
@@ -22335,13 +22388,15 @@
         <v>560</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E332" s="5"/>
+      <c r="E332" s="12" t="s">
+        <v>566</v>
+      </c>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
@@ -22368,7 +22423,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="6"/>
       <c r="AA332" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB332" s="14"/>
       <c r="AC332" s="7"/>
@@ -22385,13 +22440,15 @@
         <v>560</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E333" s="5"/>
+      <c r="E333" s="12" t="s">
+        <v>568</v>
+      </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
@@ -22418,7 +22475,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="6"/>
       <c r="AA333" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB333" s="14"/>
       <c r="AC333" s="7"/>
@@ -22435,13 +22492,15 @@
         <v>560</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E334" s="5"/>
+      <c r="E334" s="12" t="s">
+        <v>570</v>
+      </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
@@ -22468,7 +22527,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="6"/>
       <c r="AA334" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB334" s="14"/>
       <c r="AC334" s="7"/>
@@ -22485,13 +22544,15 @@
         <v>560</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E335" s="5"/>
+      <c r="E335" s="16" t="s">
+        <v>572</v>
+      </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
@@ -22518,7 +22579,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="6"/>
       <c r="AA335" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB335" s="14"/>
       <c r="AC335" s="7"/>
@@ -22535,13 +22596,15 @@
         <v>560</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E336" s="5"/>
+      <c r="E336" s="16" t="s">
+        <v>574</v>
+      </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
@@ -22568,7 +22631,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="6"/>
       <c r="AA336" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB336" s="14"/>
       <c r="AC336" s="7"/>
@@ -22585,13 +22648,15 @@
         <v>560</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E337" s="5"/>
+      <c r="E337" s="16" t="s">
+        <v>576</v>
+      </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
@@ -22618,7 +22683,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="6"/>
       <c r="AA337" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB337" s="14"/>
       <c r="AC337" s="7"/>
@@ -22635,13 +22700,15 @@
         <v>560</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E338" s="5"/>
+      <c r="E338" s="16" t="s">
+        <v>578</v>
+      </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
@@ -22668,7 +22735,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="6"/>
       <c r="AA338" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB338" s="14"/>
       <c r="AC338" s="7"/>
@@ -22685,13 +22752,15 @@
         <v>560</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E339" s="5"/>
+      <c r="E339" s="16" t="s">
+        <v>580</v>
+      </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
@@ -22718,7 +22787,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="6"/>
       <c r="AA339" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB339" s="14"/>
       <c r="AC339" s="7"/>
@@ -22735,13 +22804,15 @@
         <v>560</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E340" s="5"/>
+      <c r="E340" s="16" t="s">
+        <v>582</v>
+      </c>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5"/>
@@ -22768,7 +22839,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="6"/>
       <c r="AA340" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB340" s="14"/>
       <c r="AC340" s="7"/>
@@ -22785,13 +22856,15 @@
         <v>560</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E341" s="5"/>
+      <c r="E341" s="16" t="s">
+        <v>584</v>
+      </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
@@ -22818,7 +22891,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="6"/>
       <c r="AA341" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB341" s="14"/>
       <c r="AC341" s="7"/>
@@ -22835,13 +22908,15 @@
         <v>560</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E342" s="5"/>
+      <c r="E342" s="12" t="s">
+        <v>586</v>
+      </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
@@ -22868,7 +22943,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="6"/>
       <c r="AA342" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB342" s="14"/>
       <c r="AC342" s="7"/>
@@ -22885,13 +22960,15 @@
         <v>560</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E343" s="5"/>
+      <c r="E343" s="12" t="s">
+        <v>588</v>
+      </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
@@ -22918,7 +22995,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="6"/>
       <c r="AA343" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB343" s="14"/>
       <c r="AC343" s="7"/>
@@ -22935,13 +23012,15 @@
         <v>560</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E344" s="5"/>
+      <c r="E344" s="12" t="s">
+        <v>590</v>
+      </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
@@ -22968,7 +23047,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="6"/>
       <c r="AA344" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB344" s="14"/>
       <c r="AC344" s="7"/>
@@ -22985,13 +23064,15 @@
         <v>560</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E345" s="5"/>
+      <c r="E345" s="12" t="s">
+        <v>592</v>
+      </c>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
@@ -23018,7 +23099,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="6"/>
       <c r="AA345" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB345" s="14"/>
       <c r="AC345" s="7"/>
@@ -23035,13 +23116,15 @@
         <v>560</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E346" s="5"/>
+      <c r="E346" s="12" t="s">
+        <v>594</v>
+      </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5"/>
@@ -23068,7 +23151,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="6"/>
       <c r="AA346" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB346" s="14"/>
       <c r="AC346" s="7"/>
@@ -23275,18 +23358,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>236</v>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD5C1E-F484-441A-9338-F63053A927B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D2BD6B-E8DA-41B1-A9AD-F4CD3A1CF5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="4890" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="4905" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="604">
   <si>
     <t>Type</t>
   </si>
@@ -2145,19 +2145,37 @@
     <t>下り49T</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH75_W_FAILURE</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
+    <t>TH75_PWR-FAILURE</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH75_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH75_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
+  </si>
+  <si>
+    <t>TH75_30TEK</t>
   </si>
   <si>
     <t>Retsuban</t>
@@ -2607,7 +2625,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ350"/>
+  <dimension ref="A1:AJ351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -22126,7 +22144,9 @@
       <c r="D327" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="E327" s="5"/>
+      <c r="E327" s="12" t="s">
+        <v>557</v>
+      </c>
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
@@ -22134,7 +22154,7 @@
       <c r="J327" s="5"/>
       <c r="K327" s="5"/>
       <c r="L327" s="5">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M327" s="5">
         <v>45</v>
@@ -22174,13 +22194,15 @@
         <v>31</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="E328" s="5"/>
+      <c r="E328" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
@@ -22188,7 +22210,7 @@
       <c r="J328" s="5"/>
       <c r="K328" s="5"/>
       <c r="L328" s="5">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M328" s="5">
         <v>45</v>
@@ -22228,13 +22250,15 @@
         <v>31</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="E329" s="5"/>
+      <c r="E329" s="12" t="s">
+        <v>561</v>
+      </c>
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
@@ -22242,10 +22266,10 @@
       <c r="J329" s="5"/>
       <c r="K329" s="5"/>
       <c r="L329" s="5">
-        <v>1294</v>
+        <v>280</v>
       </c>
       <c r="M329" s="5">
-        <v>927</v>
+        <v>45</v>
       </c>
       <c r="N329" s="5"/>
       <c r="O329" s="5"/>
@@ -22282,13 +22306,15 @@
         <v>31</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="E330" s="5"/>
+      <c r="E330" s="12" t="s">
+        <v>563</v>
+      </c>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5"/>
@@ -22296,7 +22322,7 @@
       <c r="J330" s="5"/>
       <c r="K330" s="5"/>
       <c r="L330" s="5">
-        <v>1256</v>
+        <v>1294</v>
       </c>
       <c r="M330" s="5">
         <v>927</v>
@@ -22333,17 +22359,17 @@
     </row>
     <row r="331" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>560</v>
+        <v>31</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
@@ -22352,10 +22378,10 @@
       <c r="J331" s="5"/>
       <c r="K331" s="5"/>
       <c r="L331" s="5">
-        <v>107</v>
+        <v>1256</v>
       </c>
       <c r="M331" s="5">
-        <v>312</v>
+        <v>927</v>
       </c>
       <c r="N331" s="5"/>
       <c r="O331" s="5"/>
@@ -22367,13 +22393,17 @@
       <c r="U331" s="5"/>
       <c r="V331" s="5"/>
       <c r="W331" s="5"/>
-      <c r="X331" s="5"/>
-      <c r="Y331" s="5"/>
-      <c r="Z331" s="6"/>
-      <c r="AA331" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="AB331" s="14"/>
+      <c r="X331" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y331" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z331" s="4"/>
+      <c r="AA331" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB331" s="7"/>
       <c r="AC331" s="7"/>
       <c r="AD331" s="7"/>
       <c r="AE331" s="7"/>
@@ -22385,17 +22415,17 @@
     </row>
     <row r="332" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
@@ -22407,7 +22437,7 @@
         <v>107</v>
       </c>
       <c r="M332" s="5">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="N332" s="5"/>
       <c r="O332" s="5"/>
@@ -22423,7 +22453,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="6"/>
       <c r="AA332" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB332" s="14"/>
       <c r="AC332" s="7"/>
@@ -22437,17 +22467,17 @@
     </row>
     <row r="333" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
@@ -22459,7 +22489,7 @@
         <v>107</v>
       </c>
       <c r="M333" s="5">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="N333" s="5"/>
       <c r="O333" s="5"/>
@@ -22475,7 +22505,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="6"/>
       <c r="AA333" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB333" s="14"/>
       <c r="AC333" s="7"/>
@@ -22489,17 +22519,17 @@
     </row>
     <row r="334" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
@@ -22511,7 +22541,7 @@
         <v>107</v>
       </c>
       <c r="M334" s="5">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="N334" s="5"/>
       <c r="O334" s="5"/>
@@ -22527,7 +22557,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="6"/>
       <c r="AA334" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB334" s="14"/>
       <c r="AC334" s="7"/>
@@ -22541,17 +22571,17 @@
     </row>
     <row r="335" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>572</v>
+        <v>568</v>
+      </c>
+      <c r="E335" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
@@ -22560,10 +22590,10 @@
       <c r="J335" s="5"/>
       <c r="K335" s="5"/>
       <c r="L335" s="5">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="M335" s="5">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="N335" s="5"/>
       <c r="O335" s="5"/>
@@ -22579,7 +22609,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="6"/>
       <c r="AA335" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB335" s="14"/>
       <c r="AC335" s="7"/>
@@ -22593,17 +22623,17 @@
     </row>
     <row r="336" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -22612,7 +22642,7 @@
       <c r="J336" s="5"/>
       <c r="K336" s="5"/>
       <c r="L336" s="5">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="M336" s="5">
         <v>312</v>
@@ -22631,7 +22661,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="6"/>
       <c r="AA336" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB336" s="14"/>
       <c r="AC336" s="7"/>
@@ -22645,17 +22675,17 @@
     </row>
     <row r="337" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
@@ -22664,10 +22694,10 @@
       <c r="J337" s="5"/>
       <c r="K337" s="5"/>
       <c r="L337" s="5">
-        <v>1096</v>
+        <v>407</v>
       </c>
       <c r="M337" s="5">
-        <v>507</v>
+        <v>312</v>
       </c>
       <c r="N337" s="5"/>
       <c r="O337" s="5"/>
@@ -22683,7 +22713,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="6"/>
       <c r="AA337" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB337" s="14"/>
       <c r="AC337" s="7"/>
@@ -22697,17 +22727,17 @@
     </row>
     <row r="338" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
@@ -22716,10 +22746,10 @@
       <c r="J338" s="5"/>
       <c r="K338" s="5"/>
       <c r="L338" s="5">
-        <v>562</v>
+        <v>1096</v>
       </c>
       <c r="M338" s="5">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="N338" s="5"/>
       <c r="O338" s="5"/>
@@ -22735,7 +22765,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="6"/>
       <c r="AA338" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB338" s="14"/>
       <c r="AC338" s="7"/>
@@ -22749,17 +22779,17 @@
     </row>
     <row r="339" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
@@ -22768,10 +22798,10 @@
       <c r="J339" s="5"/>
       <c r="K339" s="5"/>
       <c r="L339" s="5">
-        <v>1096</v>
+        <v>562</v>
       </c>
       <c r="M339" s="5">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="N339" s="5"/>
       <c r="O339" s="5"/>
@@ -22787,7 +22817,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="6"/>
       <c r="AA339" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB339" s="14"/>
       <c r="AC339" s="7"/>
@@ -22801,17 +22831,17 @@
     </row>
     <row r="340" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
@@ -22820,10 +22850,10 @@
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
       <c r="L340" s="5">
-        <v>1252</v>
+        <v>1096</v>
       </c>
       <c r="M340" s="5">
-        <v>417</v>
+        <v>644</v>
       </c>
       <c r="N340" s="5"/>
       <c r="O340" s="5"/>
@@ -22839,7 +22869,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="6"/>
       <c r="AA340" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB340" s="14"/>
       <c r="AC340" s="7"/>
@@ -22853,17 +22883,17 @@
     </row>
     <row r="341" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
@@ -22875,7 +22905,7 @@
         <v>1252</v>
       </c>
       <c r="M341" s="5">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="N341" s="5"/>
       <c r="O341" s="5"/>
@@ -22891,7 +22921,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="6"/>
       <c r="AA341" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB341" s="14"/>
       <c r="AC341" s="7"/>
@@ -22905,17 +22935,17 @@
     </row>
     <row r="342" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E342" s="12" t="s">
-        <v>586</v>
+        <v>568</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>590</v>
       </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
@@ -22924,10 +22954,10 @@
       <c r="J342" s="5"/>
       <c r="K342" s="5"/>
       <c r="L342" s="5">
-        <v>1771</v>
+        <v>1252</v>
       </c>
       <c r="M342" s="5">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="N342" s="5"/>
       <c r="O342" s="5"/>
@@ -22943,7 +22973,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="6"/>
       <c r="AA342" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB342" s="14"/>
       <c r="AC342" s="7"/>
@@ -22957,17 +22987,17 @@
     </row>
     <row r="343" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
@@ -22979,7 +23009,7 @@
         <v>1771</v>
       </c>
       <c r="M343" s="5">
-        <v>537</v>
+        <v>357</v>
       </c>
       <c r="N343" s="5"/>
       <c r="O343" s="5"/>
@@ -22995,7 +23025,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="6"/>
       <c r="AA343" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB343" s="14"/>
       <c r="AC343" s="7"/>
@@ -23009,17 +23039,17 @@
     </row>
     <row r="344" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
@@ -23031,7 +23061,7 @@
         <v>1771</v>
       </c>
       <c r="M344" s="5">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="N344" s="5"/>
       <c r="O344" s="5"/>
@@ -23047,7 +23077,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="6"/>
       <c r="AA344" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB344" s="14"/>
       <c r="AC344" s="7"/>
@@ -23061,17 +23091,17 @@
     </row>
     <row r="345" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
@@ -23080,10 +23110,10 @@
       <c r="J345" s="5"/>
       <c r="K345" s="5"/>
       <c r="L345" s="5">
-        <v>2255</v>
+        <v>1771</v>
       </c>
       <c r="M345" s="5">
-        <v>684</v>
+        <v>597</v>
       </c>
       <c r="N345" s="5"/>
       <c r="O345" s="5"/>
@@ -23099,7 +23129,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="6"/>
       <c r="AA345" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB345" s="14"/>
       <c r="AC345" s="7"/>
@@ -23113,17 +23143,17 @@
     </row>
     <row r="346" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
@@ -23132,7 +23162,7 @@
       <c r="J346" s="5"/>
       <c r="K346" s="5"/>
       <c r="L346" s="5">
-        <v>2405</v>
+        <v>2255</v>
       </c>
       <c r="M346" s="5">
         <v>684</v>
@@ -23151,7 +23181,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="6"/>
       <c r="AA346" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AB346" s="14"/>
       <c r="AC346" s="7"/>
@@ -23164,19 +23194,31 @@
       <c r="AJ346" s="7"/>
     </row>
     <row r="347" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A347" s="5"/>
-      <c r="B347" s="8"/>
+      <c r="A347" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>599</v>
+      </c>
       <c r="C347" s="5"/>
-      <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
+      <c r="D347" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E347" s="12" t="s">
+        <v>600</v>
+      </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
       <c r="K347" s="5"/>
-      <c r="L347" s="5"/>
-      <c r="M347" s="5"/>
+      <c r="L347" s="5">
+        <v>2405</v>
+      </c>
+      <c r="M347" s="5">
+        <v>684</v>
+      </c>
       <c r="N347" s="5"/>
       <c r="O347" s="5"/>
       <c r="P347" s="5"/>
@@ -23190,8 +23232,10 @@
       <c r="X347" s="5"/>
       <c r="Y347" s="5"/>
       <c r="Z347" s="6"/>
-      <c r="AA347" s="7"/>
-      <c r="AB347" s="7"/>
+      <c r="AA347" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB347" s="14"/>
       <c r="AC347" s="7"/>
       <c r="AD347" s="7"/>
       <c r="AE347" s="7"/>
@@ -23315,10 +23359,48 @@
       <c r="AI350" s="7"/>
       <c r="AJ350" s="7"/>
     </row>
+    <row r="351" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A351" s="5"/>
+      <c r="B351" s="8"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="5"/>
+      <c r="L351" s="5"/>
+      <c r="M351" s="5"/>
+      <c r="N351" s="5"/>
+      <c r="O351" s="5"/>
+      <c r="P351" s="5"/>
+      <c r="Q351" s="5"/>
+      <c r="R351" s="5"/>
+      <c r="S351" s="5"/>
+      <c r="T351" s="5"/>
+      <c r="U351" s="5"/>
+      <c r="V351" s="5"/>
+      <c r="W351" s="5"/>
+      <c r="X351" s="5"/>
+      <c r="Y351" s="5"/>
+      <c r="Z351" s="6"/>
+      <c r="AA351" s="7"/>
+      <c r="AB351" s="7"/>
+      <c r="AC351" s="7"/>
+      <c r="AD351" s="7"/>
+      <c r="AE351" s="7"/>
+      <c r="AF351" s="7"/>
+      <c r="AG351" s="7"/>
+      <c r="AH351" s="7"/>
+      <c r="AI351" s="7"/>
+      <c r="AJ351" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A350" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A351" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Button,Label,TextBlock,Image,BackImage,ClockImage,LeverImage,KeyImage,ButtonImage,Retsuban"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23331,13 +23413,13 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G350 I2:I350</xm:sqref>
+          <xm:sqref>G2:G351 I2:I351</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K350</xm:sqref>
+          <xm:sqref>K2:K351</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23358,18 +23440,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>236</v>
@@ -23433,7 +23515,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D2BD6B-E8DA-41B1-A9AD-F4CD3A1CF5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E5512-C5A9-4307-812B-B0213C169270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="4905" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="4845" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -22322,7 +22322,7 @@
       <c r="J330" s="5"/>
       <c r="K330" s="5"/>
       <c r="L330" s="5">
-        <v>1294</v>
+        <v>1256</v>
       </c>
       <c r="M330" s="5">
         <v>927</v>
@@ -22378,7 +22378,7 @@
       <c r="J331" s="5"/>
       <c r="K331" s="5"/>
       <c r="L331" s="5">
-        <v>1256</v>
+        <v>1294</v>
       </c>
       <c r="M331" s="5">
         <v>927</v>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E5512-C5A9-4307-812B-B0213C169270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C832A6E-17B3-4C90-A60D-682DD5EA1B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="4845" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="4680" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -1527,13 +1527,13 @@
     <t>TH76_22T_W22N_2</t>
   </si>
   <si>
-    <t>TH76_22T_W22N_3</t>
-  </si>
-  <si>
     <t>TH76_22T_W22R_1</t>
   </si>
   <si>
     <t>TH76_22T_W22R_2</t>
+  </si>
+  <si>
+    <t>TH76_22T_W22R_3</t>
   </si>
   <si>
     <t>TH76_23T_W23N_W24ロN_1</t>
@@ -12674,10 +12674,10 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M169" s="5">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
@@ -12697,9 +12697,11 @@
       </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB169" s="14"/>
+        <v>337</v>
+      </c>
+      <c r="AB169" s="14">
+        <v>112</v>
+      </c>
       <c r="AC169" s="7"/>
       <c r="AD169" s="7"/>
       <c r="AE169" s="7"/>
@@ -12727,14 +12729,14 @@
         <v>347</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="M170" s="5">
         <v>548</v>
@@ -12794,7 +12796,7 @@
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="M171" s="5">
         <v>548</v>
@@ -12854,10 +12856,10 @@
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="M172" s="5">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
@@ -12877,11 +12879,9 @@
       </c>
       <c r="Z172" s="4"/>
       <c r="AA172" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB172" s="14">
-        <v>112</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AB172" s="14"/>
       <c r="AC172" s="7"/>
       <c r="AD172" s="7"/>
       <c r="AE172" s="7"/>

--- a/exe/TSV/Excel/TH75_Komano_UIList.xlsx
+++ b/exe/TSV/Excel/TH75_Komano_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C832A6E-17B3-4C90-A60D-682DD5EA1B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D538D3D5-84EE-4428-9DA4-5B29793EE649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="4680" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="5025" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH75_駒野駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="605">
   <si>
     <t>Type</t>
   </si>
@@ -1593,7 +1593,7 @@
     <t>TH76_25T</t>
   </si>
   <si>
-    <t>TH75_W25</t>
+    <t>TH76_W25</t>
   </si>
   <si>
     <t>TH76_25T_W25N_2</t>
@@ -1608,10 +1608,10 @@
     <t>TH76_26イT_W26イN_1</t>
   </si>
   <si>
-    <t>TH76_26T</t>
-  </si>
-  <si>
-    <t>TH75_W26</t>
+    <t>TH76_26イT</t>
+  </si>
+  <si>
+    <t>TH76_W26</t>
   </si>
   <si>
     <t>TH76_26イT_W26イN_2</t>
@@ -1624,6 +1624,9 @@
   </si>
   <si>
     <t>TH76_26ロT_W26ロN_1</t>
+  </si>
+  <si>
+    <t>TH76_26ロT</t>
   </si>
   <si>
     <t>TH76_26ロT_W26ロN_2</t>
@@ -14145,7 +14148,7 @@
         <v>314</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>377</v>
@@ -14198,14 +14201,14 @@
         <v>31</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>377</v>
@@ -14258,14 +14261,14 @@
         <v>31</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>377</v>
@@ -14320,14 +14323,14 @@
         <v>31</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>377</v>
@@ -14380,14 +14383,14 @@
         <v>31</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
@@ -14436,14 +14439,14 @@
         <v>31</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -14492,14 +14495,14 @@
         <v>31</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
@@ -14548,14 +14551,14 @@
         <v>31</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
@@ -14604,14 +14607,14 @@
         <v>31</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
@@ -14660,14 +14663,14 @@
         <v>31</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
@@ -14716,14 +14719,14 @@
         <v>31</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
@@ -14772,14 +14775,14 @@
         <v>31</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -14828,14 +14831,14 @@
         <v>31</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
@@ -14884,14 +14887,14 @@
         <v>31</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
@@ -14940,14 +14943,14 @@
         <v>31</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
@@ -14996,14 +14999,14 @@
         <v>31</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
@@ -15052,14 +15055,14 @@
         <v>31</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
@@ -15108,14 +15111,14 @@
         <v>31</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>232</v>
@@ -15168,14 +15171,14 @@
         <v>31</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>232</v>
@@ -15228,14 +15231,14 @@
         <v>31</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>232</v>
@@ -15288,14 +15291,14 @@
         <v>31</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>232</v>
@@ -15331,7 +15334,7 @@
       </c>
       <c r="Z213" s="4"/>
       <c r="AA213" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB213" s="14">
         <v>45</v>
@@ -15350,14 +15353,14 @@
         <v>31</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>232</v>
@@ -15410,14 +15413,14 @@
         <v>31</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>232</v>
@@ -15470,14 +15473,14 @@
         <v>31</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>232</v>
@@ -15513,7 +15516,7 @@
       </c>
       <c r="Z216" s="4"/>
       <c r="AA216" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB216" s="14">
         <v>45</v>
@@ -15532,14 +15535,14 @@
         <v>31</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>232</v>
@@ -15592,14 +15595,14 @@
         <v>31</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>243</v>
@@ -15652,14 +15655,14 @@
         <v>31</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>243</v>
@@ -15712,14 +15715,14 @@
         <v>31</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>243</v>
@@ -15772,14 +15775,14 @@
         <v>31</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>243</v>
@@ -15834,14 +15837,14 @@
         <v>31</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>243</v>
@@ -15894,14 +15897,14 @@
         <v>31</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>243</v>
@@ -15954,14 +15957,14 @@
         <v>31</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>243</v>
@@ -16016,14 +16019,14 @@
         <v>31</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>243</v>
@@ -16076,14 +16079,14 @@
         <v>31</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>250</v>
@@ -16136,14 +16139,14 @@
         <v>31</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>250</v>
@@ -16196,14 +16199,14 @@
         <v>31</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>250</v>
@@ -16256,14 +16259,14 @@
         <v>31</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>250</v>
@@ -16299,7 +16302,7 @@
       </c>
       <c r="Z229" s="4"/>
       <c r="AA229" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB229" s="14">
         <v>45</v>
@@ -16318,14 +16321,14 @@
         <v>31</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>250</v>
@@ -16378,14 +16381,14 @@
         <v>31</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>250</v>
@@ -16438,14 +16441,14 @@
         <v>31</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>250</v>
@@ -16481,7 +16484,7 @@
       </c>
       <c r="Z232" s="4"/>
       <c r="AA232" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB232" s="14">
         <v>45</v>
@@ -16500,14 +16503,14 @@
         <v>31</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>250</v>
@@ -16560,14 +16563,14 @@
         <v>31</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>257</v>
@@ -16624,14 +16627,14 @@
         <v>31</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>257</v>
@@ -16688,14 +16691,14 @@
         <v>31</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>257</v>
@@ -16752,14 +16755,14 @@
         <v>31</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>257</v>
@@ -16816,14 +16819,14 @@
         <v>31</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>257</v>
@@ -16863,7 +16866,7 @@
       </c>
       <c r="Z238" s="4"/>
       <c r="AA238" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB238" s="14">
         <v>45</v>
@@ -16882,14 +16885,14 @@
         <v>31</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>257</v>
@@ -16946,14 +16949,14 @@
         <v>31</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>257</v>
@@ -17010,14 +17013,14 @@
         <v>31</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>257</v>
@@ -17074,14 +17077,14 @@
         <v>31</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>257</v>
@@ -17140,14 +17143,14 @@
         <v>31</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>264</v>
@@ -17204,14 +17207,14 @@
         <v>31</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>264</v>
@@ -17268,14 +17271,14 @@
         <v>31</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>264</v>
@@ -17332,14 +17335,14 @@
         <v>31</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>264</v>
@@ -17396,14 +17399,14 @@
         <v>31</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>264</v>
@@ -17462,14 +17465,14 @@
         <v>31</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>264</v>
@@ -17526,14 +17529,14 @@
         <v>31</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>264</v>
@@ -17590,14 +17593,14 @@
         <v>31</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>264</v>
@@ -17654,14 +17657,14 @@
         <v>31</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>264</v>
@@ -17701,7 +17704,7 @@
       </c>
       <c r="Z251" s="4"/>
       <c r="AA251" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB251" s="14">
         <v>45</v>
@@ -17720,14 +17723,14 @@
         <v>31</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -17776,14 +17779,14 @@
         <v>31</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
@@ -17832,14 +17835,14 @@
         <v>31</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
@@ -17888,14 +17891,14 @@
         <v>31</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
@@ -17944,14 +17947,14 @@
         <v>31</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
@@ -18000,14 +18003,14 @@
         <v>31</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
@@ -18056,14 +18059,14 @@
         <v>31</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
@@ -18112,14 +18115,14 @@
         <v>31</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
@@ -18168,14 +18171,14 @@
         <v>31</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
@@ -18224,14 +18227,14 @@
         <v>31</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
@@ -18280,14 +18283,14 @@
         <v>31</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
@@ -18336,14 +18339,14 @@
         <v>31</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
@@ -18392,14 +18395,14 @@
         <v>31</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -18448,14 +18451,14 @@
         <v>31</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
@@ -18504,14 +18507,14 @@
         <v>31</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
@@ -18560,14 +18563,14 @@
         <v>31</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
@@ -18616,14 +18619,14 @@
         <v>31</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>271</v>
@@ -18676,14 +18679,14 @@
         <v>31</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>271</v>
@@ -18736,14 +18739,14 @@
         <v>31</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>271</v>
@@ -18796,14 +18799,14 @@
         <v>31</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>271</v>
@@ -18856,14 +18859,14 @@
         <v>31</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>271</v>
@@ -18916,14 +18919,14 @@
         <v>31</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>271</v>
@@ -18976,14 +18979,14 @@
         <v>31</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F274" s="5" t="s">
         <v>271</v>
@@ -19036,14 +19039,14 @@
         <v>31</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F275" s="5" t="s">
         <v>271</v>
@@ -19098,14 +19101,14 @@
         <v>31</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F276" s="5" t="s">
         <v>271</v>
@@ -19160,14 +19163,14 @@
         <v>31</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F277" s="5" t="s">
         <v>271</v>
@@ -19220,14 +19223,14 @@
         <v>31</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F278" s="5" t="s">
         <v>271</v>
@@ -19280,14 +19283,14 @@
         <v>31</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>271</v>
@@ -19342,14 +19345,14 @@
         <v>31</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>271</v>
@@ -19404,14 +19407,14 @@
         <v>31</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>271</v>
@@ -19464,14 +19467,14 @@
         <v>31</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F282" s="5" t="s">
         <v>278</v>
@@ -19528,14 +19531,14 @@
         <v>31</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>278</v>
@@ -19594,14 +19597,14 @@
         <v>31</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>278</v>
@@ -19658,14 +19661,14 @@
         <v>31</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>278</v>
@@ -19722,14 +19725,14 @@
         <v>31</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>278</v>
@@ -19788,14 +19791,14 @@
         <v>31</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>278</v>
@@ -19852,14 +19855,14 @@
         <v>31</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>285</v>
@@ -19912,14 +19915,14 @@
         <v>31</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>285</v>
@@ -19972,14 +19975,14 @@
         <v>31</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
@@ -20028,14 +20031,14 @@
         <v>31</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
@@ -20084,14 +20087,14 @@
         <v>31</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
@@ -20140,14 +20143,14 @@
         <v>31</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
@@ -20196,14 +20199,14 @@
         <v>31</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -20252,14 +20255,14 @@
         <v>31</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -20308,14 +20311,14 @@
         <v>31</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -20364,14 +20367,14 @@
         <v>31</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>292</v>
@@ -20424,14 +20427,14 @@
         <v>31</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C298" s="5"/>
       <c r="D298" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>292</v>
@@ -20486,14 +20489,14 @@
         <v>31</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>292</v>
@@ -20548,7 +20551,7 @@
         <v>31</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5" t="s">
@@ -20585,7 +20588,7 @@
       </c>
       <c r="Z300" s="4"/>
       <c r="AA300" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB300" s="14"/>
       <c r="AC300" s="7"/>
@@ -20602,14 +20605,14 @@
         <v>31</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>292</v>
@@ -20662,14 +20665,14 @@
         <v>31</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>292</v>
@@ -20724,14 +20727,14 @@
         <v>31</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>292</v>
@@ -20786,14 +20789,14 @@
         <v>31</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>292</v>
@@ -20848,14 +20851,14 @@
         <v>31</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>292</v>
@@ -20908,14 +20911,14 @@
         <v>31</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>292</v>
@@ -20968,14 +20971,14 @@
         <v>31</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F307" s="5" t="s">
         <v>292</v>
@@ -21028,14 +21031,14 @@
         <v>31</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>292</v>
@@ -21090,14 +21093,14 @@
         <v>31</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F309" s="5" t="s">
         <v>292</v>
@@ -21150,14 +21153,14 @@
         <v>31</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F310" s="5" t="s">
         <v>299</v>
@@ -21210,14 +21213,14 @@
         <v>31</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>299</v>
@@ -21270,14 +21273,14 @@
         <v>31</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F312" s="5" t="s">
         <v>299</v>
@@ -21330,14 +21333,14 @@
         <v>31</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F313" s="5" t="s">
         <v>299</v>
@@ -21392,14 +21395,14 @@
         <v>31</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F314" s="5" t="s">
         <v>299</v>
@@ -21452,14 +21455,14 @@
         <v>31</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>299</v>
@@ -21512,14 +21515,14 @@
         <v>31</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>299</v>
@@ -21574,14 +21577,14 @@
         <v>31</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>299</v>
@@ -21634,14 +21637,14 @@
         <v>31</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
@@ -21690,14 +21693,14 @@
         <v>31</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
@@ -21746,14 +21749,14 @@
         <v>31</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
@@ -21802,14 +21805,14 @@
         <v>31</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
@@ -21858,14 +21861,14 @@
         <v>31</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
@@ -21914,14 +21917,14 @@
         <v>31</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
@@ -21970,14 +21973,14 @@
         <v>31</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
@@ -22026,14 +22029,14 @@
         <v>31</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
@@ -22082,14 +22085,14 @@
         <v>31</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
@@ -22138,14 +22141,14 @@
         <v>31</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
@@ -22177,7 +22180,7 @@
       </c>
       <c r="Z327" s="4"/>
       <c r="AA327" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB327" s="7"/>
       <c r="AC327" s="7"/>
@@ -22194,14 +22197,14 @@
         <v>31</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
@@ -22233,7 +22236,7 @@
       </c>
       <c r="Z328" s="4"/>
       <c r="AA328" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB328" s="7"/>
       <c r="AC328" s="7"/>
@@ -22250,14 +22253,14 @@
         <v>31</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
@@ -22289,7 +22292,7 @@
       </c>
       <c r="Z329" s="4"/>
       <c r="AA329" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB329" s="7"/>
       <c r="AC329" s="7"/>
@@ -22306,14 +22309,14 @@
         <v>31</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
@@ -22345,7 +22348,7 @@
       </c>
       <c r="Z330" s="4"/>
       <c r="AA330" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB330" s="7"/>
       <c r="AC330" s="7"/>
@@ -22362,14 +22365,14 @@
         <v>31</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
@@ -22401,7 +22404,7 @@
       </c>
       <c r="Z331" s="4"/>
       <c r="AA331" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB331" s="7"/>
       <c r="AC331" s="7"/>
@@ -22415,17 +22418,17 @@
     </row>
     <row r="332" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
@@ -22453,7 +22456,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="6"/>
       <c r="AA332" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB332" s="14"/>
       <c r="AC332" s="7"/>
@@ -22467,17 +22470,17 @@
     </row>
     <row r="333" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
@@ -22505,7 +22508,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="6"/>
       <c r="AA333" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB333" s="14"/>
       <c r="AC333" s="7"/>
@@ -22519,17 +22522,17 @@
     </row>
     <row r="334" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
@@ -22557,7 +22560,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="6"/>
       <c r="AA334" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB334" s="14"/>
       <c r="AC334" s="7"/>
@@ -22571,17 +22574,17 @@
     </row>
     <row r="335" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
@@ -22609,7 +22612,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="6"/>
       <c r="AA335" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB335" s="14"/>
       <c r="AC335" s="7"/>
@@ -22623,17 +22626,17 @@
     </row>
     <row r="336" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
@@ -22661,7 +22664,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="6"/>
       <c r="AA336" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB336" s="14"/>
       <c r="AC336" s="7"/>
@@ -22675,17 +22678,17 @@
     </row>
     <row r="337" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
@@ -22713,7 +22716,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="6"/>
       <c r="AA337" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB337" s="14"/>
       <c r="AC337" s="7"/>
@@ -22727,17 +22730,17 @@
     </row>
     <row r="338" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
@@ -22765,7 +22768,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="6"/>
       <c r="AA338" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB338" s="14"/>
       <c r="AC338" s="7"/>
@@ -22779,17 +22782,17 @@
     </row>
     <row r="339" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
@@ -22817,7 +22820,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="6"/>
       <c r="AA339" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB339" s="14"/>
       <c r="AC339" s="7"/>
@@ -22831,17 +22834,17 @@
     </row>
     <row r="340" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
@@ -22869,7 +22872,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="6"/>
       <c r="AA340" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB340" s="14"/>
       <c r="AC340" s="7"/>
@@ -22883,17 +22886,17 @@
     </row>
     <row r="341" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
@@ -22921,7 +22924,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="6"/>
       <c r="AA341" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB341" s="14"/>
       <c r="AC341" s="7"/>
@@ -22935,17 +22938,17 @@
     </row>
     <row r="342" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
@@ -22973,7 +22976,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="6"/>
       <c r="AA342" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB342" s="14"/>
       <c r="AC342" s="7"/>
@@ -22987,17 +22990,17 @@
     </row>
     <row r="343" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
@@ -23025,7 +23028,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="6"/>
       <c r="AA343" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB343" s="14"/>
       <c r="AC343" s="7"/>
@@ -23039,17 +23042,17 @@
     </row>
     <row r="344" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
@@ -23077,7 +23080,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="6"/>
       <c r="AA344" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB344" s="14"/>
       <c r="AC344" s="7"/>
@@ -23091,17 +23094,17 @@
     </row>
     <row r="345" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
@@ -23129,7 +23132,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="6"/>
       <c r="AA345" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB345" s="14"/>
       <c r="AC345" s="7"/>
@@ -23143,17 +23146,17 @@
     </row>
     <row r="346" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
@@ -23181,7 +23184,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="6"/>
       <c r="AA346" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB346" s="14"/>
       <c r="AC346" s="7"/>
@@ -23195,17 +23198,17 @@
     </row>
     <row r="347" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C347" s="5"/>
       <c r="D347" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
@@ -23233,7 +23236,7 @@
       <c r="Y347" s="5"/>
       <c r="Z347" s="6"/>
       <c r="AA347" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB347" s="14"/>
       <c r="AC347" s="7"/>
@@ -23440,18 +23443,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>236</v>
@@ -23515,7 +23518,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
